--- a/results/mp/logistic/corona/confidence/210/desired-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/desired-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="109">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,67 +40,64 @@
     <t>name</t>
   </si>
   <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>kill</t>
+    <t>collapse</t>
   </si>
   <si>
     <t>hell</t>
   </si>
   <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>collapse</t>
+    <t>warning</t>
   </si>
   <si>
     <t>died</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>problem</t>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>avoid</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>shame</t>
+    <t>saudi</t>
   </si>
   <si>
     <t>shit</t>
@@ -112,9 +109,6 @@
     <t>emergency</t>
   </si>
   <si>
-    <t>cut</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -127,6 +121,9 @@
     <t>to</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>the</t>
   </si>
   <si>
@@ -142,196 +139,205 @@
     <t>best</t>
   </si>
   <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>friend</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>toronto</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>giving</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
     <t>kind</t>
   </si>
   <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>share</t>
+    <t>dear</t>
   </si>
   <si>
     <t>boost</t>
   </si>
   <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>alert</t>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>data</t>
   </si>
   <si>
     <t>helping</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
     <t>give</t>
   </si>
   <si>
+    <t>year</t>
+  </si>
+  <si>
     <t>increased</t>
   </si>
   <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
     <t>!</t>
   </si>
   <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>.</t>
+    <t>and</t>
   </si>
   <si>
     <t>corona</t>
@@ -692,7 +698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q70"/>
+  <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -700,10 +706,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -761,13 +767,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8947368421052632</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -779,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -811,13 +817,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8947368421052632</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -829,19 +835,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K4">
-        <v>0.95</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L4">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M4">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -853,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -861,13 +867,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8695652173913043</v>
+        <v>0.8493150684931506</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>248</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>248</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -879,10 +885,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K5">
         <v>0.9491525423728814</v>
@@ -911,13 +917,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8666666666666667</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -929,19 +935,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K6">
-        <v>0.9473684210526315</v>
+        <v>0.9375</v>
       </c>
       <c r="L6">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M6">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -961,13 +967,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8648648648648649</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C7">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -982,7 +988,7 @@
         <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K7">
         <v>0.9333333333333333</v>
@@ -1011,13 +1017,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8356164383561644</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C8">
-        <v>244</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>244</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1029,10 +1035,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K8">
         <v>0.9166666666666666</v>
@@ -1061,7 +1067,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8235294117647058</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="C9">
         <v>28</v>
@@ -1079,19 +1085,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K9">
-        <v>0.9138381201044387</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L9">
-        <v>350</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>350</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1103,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1111,13 +1117,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7586206896551724</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1129,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K10">
-        <v>0.9090909090909091</v>
+        <v>0.9057591623036649</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>346</v>
       </c>
       <c r="M10">
-        <v>30</v>
+        <v>347</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1150,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1161,13 +1167,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7222222222222222</v>
+        <v>0.7</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1179,19 +1185,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K11">
-        <v>0.8928571428571429</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="L11">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="M11">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1203,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1211,13 +1217,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6842105263157895</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1229,10 +1235,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K12">
         <v>0.8888888888888888</v>
@@ -1261,13 +1267,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1279,10 +1285,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K13">
         <v>0.8846153846153846</v>
@@ -1311,13 +1317,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6153846153846154</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1329,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K14">
-        <v>0.8773584905660378</v>
+        <v>0.8837209302325582</v>
       </c>
       <c r="L14">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="M14">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1353,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1361,13 +1367,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5600000000000001</v>
+        <v>0.5767195767195767</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1379,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K15">
-        <v>0.875</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L15">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="M15">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1403,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1411,13 +1417,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5502645502645502</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C16">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1429,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K16">
-        <v>0.8671875</v>
+        <v>0.8679245283018868</v>
       </c>
       <c r="L16">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="M16">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1453,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1482,16 +1488,16 @@
         <v>237</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K17">
-        <v>0.8636363636363636</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L17">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="M17">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1503,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1511,13 +1517,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5333333333333333</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D18">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1529,19 +1535,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K18">
-        <v>0.8620689655172413</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L18">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="M18">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1553,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1561,13 +1567,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5254237288135594</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C19">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1579,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K19">
-        <v>0.85625</v>
+        <v>0.8625</v>
       </c>
       <c r="L19">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M19">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1603,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1611,13 +1617,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4705882352941176</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="C20">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1629,19 +1635,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K20">
-        <v>0.852112676056338</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L20">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="M20">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1653,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1661,13 +1667,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4516129032258064</v>
+        <v>0.4576271186440678</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D21">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1679,19 +1685,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K21">
-        <v>0.8297872340425532</v>
+        <v>0.8515625</v>
       </c>
       <c r="L21">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="M21">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1703,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1711,13 +1717,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3928571428571428</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1729,19 +1735,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K22">
-        <v>0.825</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L22">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="M22">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1753,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1761,49 +1767,49 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3513513513513514</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="C23">
+        <v>16</v>
+      </c>
+      <c r="D23">
+        <v>16</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>23</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K23">
+        <v>0.8414634146341463</v>
+      </c>
+      <c r="L23">
+        <v>69</v>
+      </c>
+      <c r="M23">
+        <v>69</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>13</v>
-      </c>
-      <c r="D23">
-        <v>13</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>24</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K23">
-        <v>0.8170731707317073</v>
-      </c>
-      <c r="L23">
-        <v>67</v>
-      </c>
-      <c r="M23">
-        <v>67</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1811,13 +1817,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3333333333333333</v>
+        <v>0.3154362416107382</v>
       </c>
       <c r="C24">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="D24">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1829,19 +1835,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K24">
-        <v>0.813953488372093</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L24">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1853,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1861,13 +1867,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3087248322147651</v>
+        <v>0.3066666666666666</v>
       </c>
       <c r="C25">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D25">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1879,19 +1885,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K25">
-        <v>0.8095238095238095</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="L25">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="M25">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1903,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1911,13 +1917,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2933333333333333</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="C26">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="D26">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1929,19 +1935,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K26">
-        <v>0.8055555555555556</v>
+        <v>0.8</v>
       </c>
       <c r="L26">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M26">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1953,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1961,13 +1967,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2363636363636364</v>
+        <v>0.1349206349206349</v>
       </c>
       <c r="C27">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D27">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1979,19 +1985,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>42</v>
+        <v>218</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K27">
-        <v>0.7916666666666666</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L27">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="M27">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2003,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2011,37 +2017,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1944444444444444</v>
+        <v>0.005889777029869584</v>
       </c>
       <c r="C28">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="D28">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>290</v>
+        <v>2363</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K28">
-        <v>0.7916666666666666</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L28">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M28">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2053,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2061,37 +2067,37 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.07142857142857142</v>
+        <v>0.004414498141263941</v>
       </c>
       <c r="C29">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D29">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>234</v>
+        <v>4285</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K29">
-        <v>0.7894736842105263</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L29">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M29">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2103,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2111,37 +2117,37 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.007572570466975179</v>
+        <v>0.004225352112676056</v>
       </c>
       <c r="C30">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D30">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E30">
-        <v>0.1</v>
+        <v>0.55</v>
       </c>
       <c r="F30">
-        <v>0.9</v>
+        <v>0.45</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>2359</v>
+        <v>4949</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K30">
-        <v>0.7857142857142857</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L30">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M30">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2153,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2161,87 +2167,63 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.004633920296570899</v>
+        <v>0.002528199144301828</v>
       </c>
       <c r="C31">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D31">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E31">
-        <v>0.38</v>
+        <v>0.64</v>
       </c>
       <c r="F31">
-        <v>0.62</v>
+        <v>0.36</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>4296</v>
+        <v>5129</v>
       </c>
       <c r="J31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K31">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="L31">
+        <v>30</v>
+      </c>
+      <c r="M31">
+        <v>30</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="J32" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K31">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L31">
-        <v>21</v>
-      </c>
-      <c r="M31">
-        <v>21</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>0.003299049097613041</v>
-      </c>
-      <c r="C32">
-        <v>17</v>
-      </c>
-      <c r="D32">
-        <v>29</v>
-      </c>
-      <c r="E32">
-        <v>0.41</v>
-      </c>
-      <c r="F32">
-        <v>0.5900000000000001</v>
-      </c>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>5136</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="K32">
-        <v>0.7714285714285715</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L32">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="M32">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2253,21 +2235,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K33">
-        <v>0.7692307692307693</v>
+        <v>0.75</v>
       </c>
       <c r="L33">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="M33">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2279,21 +2261,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K34">
-        <v>0.7647058823529411</v>
+        <v>0.75</v>
       </c>
       <c r="L34">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M34">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2305,21 +2287,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K35">
         <v>0.75</v>
       </c>
       <c r="L35">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M35">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2331,21 +2313,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K36">
-        <v>0.74</v>
+        <v>0.7441176470588236</v>
       </c>
       <c r="L36">
-        <v>37</v>
+        <v>253</v>
       </c>
       <c r="M36">
-        <v>37</v>
+        <v>253</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2357,21 +2339,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>13</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K37">
-        <v>0.7323529411764705</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L37">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="M37">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2383,21 +2365,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>91</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K38">
-        <v>0.7280334728033473</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L38">
-        <v>174</v>
+        <v>35</v>
       </c>
       <c r="M38">
-        <v>174</v>
+        <v>35</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2409,21 +2391,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>65</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K39">
-        <v>0.7272727272727273</v>
+        <v>0.7244897959183674</v>
       </c>
       <c r="L39">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="M39">
-        <v>16</v>
+        <v>214</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2432,24 +2414,24 @@
         <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K40">
-        <v>0.7254237288135593</v>
+        <v>0.7154811715481172</v>
       </c>
       <c r="L40">
-        <v>214</v>
+        <v>171</v>
       </c>
       <c r="M40">
-        <v>214</v>
+        <v>171</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2461,21 +2443,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K41">
-        <v>0.7127659574468085</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L41">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="M41">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2487,21 +2469,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K42">
-        <v>0.696969696969697</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L42">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M42">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2513,21 +2495,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K43">
-        <v>0.6966292134831461</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L43">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M43">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2539,21 +2521,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K44">
-        <v>0.6785714285714286</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L44">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M44">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2565,21 +2547,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K45">
-        <v>0.6666666666666666</v>
+        <v>0.675</v>
       </c>
       <c r="L45">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="M45">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2591,21 +2573,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K46">
-        <v>0.6615384615384615</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L46">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="M46">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2617,21 +2599,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K47">
-        <v>0.6296296296296297</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L47">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="M47">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2643,21 +2625,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K48">
-        <v>0.625</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L48">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="M48">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2669,21 +2651,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K49">
-        <v>0.625</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L49">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="M49">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2695,21 +2677,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K50">
-        <v>0.6086956521739131</v>
+        <v>0.6067415730337079</v>
       </c>
       <c r="L50">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="M50">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2721,21 +2703,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K51">
-        <v>0.6078431372549019</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L51">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="M51">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2747,15 +2729,15 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K52">
-        <v>0.5925925925925926</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L52">
         <v>16</v>
@@ -2773,21 +2755,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K53">
-        <v>0.5857142857142857</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L53">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M53">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2799,21 +2781,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K54">
-        <v>0.5652173913043478</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="L54">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M54">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2825,21 +2807,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K55">
-        <v>0.547945205479452</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L55">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="M55">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2851,21 +2833,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K56">
-        <v>0.5476190476190477</v>
+        <v>0.5</v>
       </c>
       <c r="L56">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M56">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2877,47 +2859,47 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K57">
-        <v>0.5172413793103449</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L57">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M57">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="N57">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K58">
-        <v>0.4516129032258064</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="L58">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M58">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2929,21 +2911,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K59">
-        <v>0.4487179487179487</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L59">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="M59">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2955,21 +2937,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K60">
-        <v>0.4444444444444444</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L60">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M60">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2981,21 +2963,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K61">
-        <v>0.4117647058823529</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L61">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M61">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3007,21 +2989,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K62">
-        <v>0.34375</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L62">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M62">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3033,15 +3015,15 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K63">
-        <v>0.3278688524590164</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L63">
         <v>20</v>
@@ -3059,21 +3041,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K64">
-        <v>0.2361111111111111</v>
+        <v>0.328125</v>
       </c>
       <c r="L64">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M64">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3085,163 +3067,319 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K65">
-        <v>0.01519756838905775</v>
+        <v>0.2295081967213115</v>
       </c>
       <c r="L65">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M65">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N65">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>972</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K66">
-        <v>0.01334445371142619</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L66">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M66">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N66">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>1183</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K67">
-        <v>0.01069855254877281</v>
+        <v>0.1805555555555556</v>
       </c>
       <c r="L67">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M67">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="N67">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>1572</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K68">
-        <v>0.00697292863002461</v>
+        <v>0.1209677419354839</v>
       </c>
       <c r="L68">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M68">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N68">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>2421</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K69">
-        <v>0.006018054162487462</v>
+        <v>0.03473491773308958</v>
       </c>
       <c r="L69">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M69">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="N69">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>4955</v>
+        <v>528</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K70">
+        <v>0.02337228714524207</v>
+      </c>
+      <c r="L70">
+        <v>28</v>
+      </c>
+      <c r="M70">
+        <v>30</v>
+      </c>
+      <c r="N70">
+        <v>0.93</v>
+      </c>
+      <c r="O70">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P70" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17">
+      <c r="J71" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="K70">
-        <v>0.004070131496556042</v>
-      </c>
-      <c r="L70">
+      <c r="K71">
+        <v>0.02127659574468085</v>
+      </c>
+      <c r="L71">
+        <v>21</v>
+      </c>
+      <c r="M71">
+        <v>23</v>
+      </c>
+      <c r="N71">
+        <v>0.91</v>
+      </c>
+      <c r="O71">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P71" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17">
+      <c r="J72" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K72">
+        <v>0.007871064467766116</v>
+      </c>
+      <c r="L72">
+        <v>21</v>
+      </c>
+      <c r="M72">
+        <v>26</v>
+      </c>
+      <c r="N72">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O72">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P72" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
+      <c r="J73" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K73">
+        <v>0.005569737758180552</v>
+      </c>
+      <c r="L73">
+        <v>24</v>
+      </c>
+      <c r="M73">
+        <v>43</v>
+      </c>
+      <c r="N73">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O73">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="P73" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>4285</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
+      <c r="J74" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K74">
+        <v>0.005226130653266331</v>
+      </c>
+      <c r="L74">
+        <v>26</v>
+      </c>
+      <c r="M74">
+        <v>47</v>
+      </c>
+      <c r="N74">
+        <v>0.55</v>
+      </c>
+      <c r="O74">
+        <v>0.45</v>
+      </c>
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>4949</v>
+      </c>
+    </row>
+    <row r="75" spans="10:17">
+      <c r="J75" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K75">
+        <v>0.004464285714285714</v>
+      </c>
+      <c r="L75">
+        <v>23</v>
+      </c>
+      <c r="M75">
+        <v>36</v>
+      </c>
+      <c r="N75">
+        <v>0.64</v>
+      </c>
+      <c r="O75">
+        <v>0.36</v>
+      </c>
+      <c r="P75" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>5129</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17">
+      <c r="J76" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K76">
+        <v>0.004068857589984351</v>
+      </c>
+      <c r="L76">
         <v>13</v>
       </c>
-      <c r="M70">
-        <v>20</v>
-      </c>
-      <c r="N70">
-        <v>0.65</v>
-      </c>
-      <c r="O70">
-        <v>0.35</v>
-      </c>
-      <c r="P70" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q70">
-        <v>3181</v>
+      <c r="M76">
+        <v>19</v>
+      </c>
+      <c r="N76">
+        <v>0.68</v>
+      </c>
+      <c r="O76">
+        <v>0.32</v>
+      </c>
+      <c r="P76" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>3182</v>
       </c>
     </row>
   </sheetData>
